--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.6017017642304</v>
+        <v>49.400308</v>
       </c>
       <c r="H2">
-        <v>48.6017017642304</v>
+        <v>148.200924</v>
       </c>
       <c r="I2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.84693741730439</v>
+        <v>3.111991333333334</v>
       </c>
       <c r="N2">
-        <v>2.84693741730439</v>
+        <v>9.335974</v>
       </c>
       <c r="O2">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="P2">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="Q2">
-        <v>138.3660032972563</v>
+        <v>153.7333303599973</v>
       </c>
       <c r="R2">
-        <v>138.3660032972563</v>
+        <v>1383.599973239976</v>
       </c>
       <c r="S2">
-        <v>0.04999231741779601</v>
+        <v>0.04164983902487439</v>
       </c>
       <c r="T2">
-        <v>0.04999231741779601</v>
+        <v>0.04164983902487438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.6017017642304</v>
+        <v>49.400308</v>
       </c>
       <c r="H3">
-        <v>48.6017017642304</v>
+        <v>148.200924</v>
       </c>
       <c r="I3">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J3">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.66452115695357</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N3">
-        <v>4.66452115695357</v>
+        <v>14.188669</v>
       </c>
       <c r="O3">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="P3">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="Q3">
-        <v>226.7036661432003</v>
+        <v>233.6415395700173</v>
       </c>
       <c r="R3">
-        <v>226.7036661432003</v>
+        <v>2102.773856130156</v>
       </c>
       <c r="S3">
-        <v>0.08190914941194706</v>
+        <v>0.06329878166190538</v>
       </c>
       <c r="T3">
-        <v>0.08190914941194706</v>
+        <v>0.06329878166190538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.6017017642304</v>
+        <v>49.400308</v>
       </c>
       <c r="H4">
-        <v>48.6017017642304</v>
+        <v>148.200924</v>
       </c>
       <c r="I4">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J4">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.940356937622999</v>
+        <v>14.783812</v>
       </c>
       <c r="N4">
-        <v>9.940356937622999</v>
+        <v>44.351436</v>
       </c>
       <c r="O4">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="P4">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="Q4">
-        <v>483.1182633123516</v>
+        <v>730.3248662140959</v>
       </c>
       <c r="R4">
-        <v>483.1182633123516</v>
+        <v>6572.923795926863</v>
       </c>
       <c r="S4">
-        <v>0.1745530043095807</v>
+        <v>0.1978615375237783</v>
       </c>
       <c r="T4">
-        <v>0.1745530043095807</v>
+        <v>0.1978615375237783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.4070516996933</v>
+        <v>69.564149</v>
       </c>
       <c r="H5">
-        <v>69.4070516996933</v>
+        <v>208.692447</v>
       </c>
       <c r="I5">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034781</v>
       </c>
       <c r="J5">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.84693741730439</v>
+        <v>3.111991333333334</v>
       </c>
       <c r="N5">
-        <v>2.84693741730439</v>
+        <v>9.335974</v>
       </c>
       <c r="O5">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="P5">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="Q5">
-        <v>197.5975325086371</v>
+        <v>216.4830287987087</v>
       </c>
       <c r="R5">
-        <v>197.5975325086371</v>
+        <v>1948.347259188378</v>
       </c>
       <c r="S5">
-        <v>0.07139296019791108</v>
+        <v>0.05865015270253734</v>
       </c>
       <c r="T5">
-        <v>0.07139296019791108</v>
+        <v>0.05865015270253733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.4070516996933</v>
+        <v>69.564149</v>
       </c>
       <c r="H6">
-        <v>69.4070516996933</v>
+        <v>208.692447</v>
       </c>
       <c r="I6">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034781</v>
       </c>
       <c r="J6">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034782</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.66452115695357</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N6">
-        <v>4.66452115695357</v>
+        <v>14.188669</v>
       </c>
       <c r="O6">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="P6">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="Q6">
-        <v>323.7506610949896</v>
+        <v>329.0075614758936</v>
       </c>
       <c r="R6">
-        <v>323.7506610949896</v>
+        <v>2961.068053283043</v>
       </c>
       <c r="S6">
-        <v>0.1169727059248156</v>
+        <v>0.08913559565351806</v>
       </c>
       <c r="T6">
-        <v>0.1169727059248156</v>
+        <v>0.08913559565351807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.4070516996933</v>
+        <v>69.564149</v>
       </c>
       <c r="H7">
-        <v>69.4070516996933</v>
+        <v>208.692447</v>
       </c>
       <c r="I7">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034781</v>
       </c>
       <c r="J7">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034782</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.940356937622999</v>
+        <v>14.783812</v>
       </c>
       <c r="N7">
-        <v>9.940356937622999</v>
+        <v>44.351436</v>
       </c>
       <c r="O7">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="P7">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="Q7">
-        <v>689.9308678830045</v>
+        <v>1028.423300755988</v>
       </c>
       <c r="R7">
-        <v>689.9308678830045</v>
+        <v>9255.809706803893</v>
       </c>
       <c r="S7">
-        <v>0.2492754153593925</v>
+        <v>0.2786231510474227</v>
       </c>
       <c r="T7">
-        <v>0.2492754153593925</v>
+        <v>0.2786231510474227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.5847941633666</v>
+        <v>44.17507666666666</v>
       </c>
       <c r="H8">
-        <v>40.5847941633666</v>
+        <v>132.52523</v>
       </c>
       <c r="I8">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="J8">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.84693741730439</v>
+        <v>3.111991333333334</v>
       </c>
       <c r="N8">
-        <v>2.84693741730439</v>
+        <v>9.335974</v>
       </c>
       <c r="O8">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="P8">
-        <v>0.1631313037526803</v>
+        <v>0.1375443917436657</v>
       </c>
       <c r="Q8">
-        <v>115.5423690772852</v>
+        <v>137.4724557360022</v>
       </c>
       <c r="R8">
-        <v>115.5423690772852</v>
+        <v>1237.25210162402</v>
       </c>
       <c r="S8">
-        <v>0.04174602613697319</v>
+        <v>0.03724440001625397</v>
       </c>
       <c r="T8">
-        <v>0.04174602613697319</v>
+        <v>0.03724440001625397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.5847941633666</v>
+        <v>44.17507666666666</v>
       </c>
       <c r="H9">
-        <v>40.5847941633666</v>
+        <v>132.52523</v>
       </c>
       <c r="I9">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="J9">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66452115695357</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N9">
-        <v>4.66452115695357</v>
+        <v>14.188669</v>
       </c>
       <c r="O9">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="P9">
-        <v>0.2672799946674905</v>
+        <v>0.2090378408570124</v>
       </c>
       <c r="Q9">
-        <v>189.3086310256293</v>
+        <v>208.9285136243189</v>
       </c>
       <c r="R9">
-        <v>189.3086310256293</v>
+        <v>1880.35662261887</v>
       </c>
       <c r="S9">
-        <v>0.06839813933072784</v>
+        <v>0.05660346354158893</v>
       </c>
       <c r="T9">
-        <v>0.06839813933072784</v>
+        <v>0.05660346354158893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.5847941633666</v>
+        <v>44.17507666666666</v>
       </c>
       <c r="H10">
-        <v>40.5847941633666</v>
+        <v>132.52523</v>
       </c>
       <c r="I10">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="J10">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.940356937622999</v>
+        <v>14.783812</v>
       </c>
       <c r="N10">
-        <v>9.940356937622999</v>
+        <v>44.351436</v>
       </c>
       <c r="O10">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="P10">
-        <v>0.5695887015798293</v>
+        <v>0.6534177673993219</v>
       </c>
       <c r="Q10">
-        <v>403.4273402238226</v>
+        <v>653.0760285255866</v>
       </c>
       <c r="R10">
-        <v>403.4273402238226</v>
+        <v>5877.684256730279</v>
       </c>
       <c r="S10">
-        <v>0.1457602819108561</v>
+        <v>0.1769330788281209</v>
       </c>
       <c r="T10">
-        <v>0.1457602819108561</v>
+        <v>0.1769330788281209</v>
       </c>
     </row>
   </sheetData>
